--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
   <si>
     <t>Step No</t>
   </si>
@@ -646,45 +646,6 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1295,10 +1256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1348,7 +1309,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,6 +1363,44 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,18 +1415,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1394,37 +1430,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,53 +1446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,7 +1479,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,13 +1539,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,55 +1581,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,25 +1623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,43 +1641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,13 +1653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,6 +1738,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1804,23 +1780,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1839,45 +1835,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1895,130 +1856,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2472,10 +2433,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4392,1044 +4353,1038 @@
       <c r="H87" s="18"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="11">
-        <v>87</v>
+      <c r="A88" s="12">
+        <v>91</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>148</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="H88" s="17"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="11"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="11">
+        <v>92</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
         <v>5</v>
       </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="17"/>
+      <c r="F89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="18"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="11">
-        <v>88</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H90" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="12">
-        <v>89</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H91" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="8">
+        <v>1</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="18"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="11">
-        <v>90</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H92" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="12">
-        <v>91</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H93" s="17"/>
+        <v>96</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="8">
+        <v>1</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="18"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="11">
-        <v>92</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8">
-        <v>4</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="11">
-        <v>93</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H95" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8">
+        <v>3</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H95" s="18"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="12">
-        <v>94</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="8">
-        <v>1</v>
-      </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="11">
-        <v>95</v>
-      </c>
-      <c r="B97" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="17"/>
+      <c r="C97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="12">
-        <v>96</v>
-      </c>
-      <c r="B98" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="8">
-        <v>1</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="18"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10">
+        <v>2</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="11">
-        <v>97</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10" t="s">
+      <c r="G99" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G99" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H99" s="17"/>
+      <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="11">
-        <v>98</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8">
-        <v>3</v>
-      </c>
-      <c r="F100" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="F100" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H100" s="18"/>
+      <c r="G100" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="12">
-        <v>99</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G101" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H101" s="17"/>
+      <c r="E101" s="8">
+        <v>9889656446</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H101" s="18"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="11">
-        <v>100</v>
-      </c>
-      <c r="B102" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="C102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8" t="s">
+      <c r="G102" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G102" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H102" s="18"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="12">
-        <v>101</v>
-      </c>
-      <c r="B103" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10">
-        <v>2</v>
-      </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="17"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8">
+        <v>4</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H103" s="18"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="11">
-        <v>102</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="G104" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G104" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H104" s="18"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="11">
-        <v>103</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H105" s="17"/>
+      <c r="G105" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H105" s="18"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="12">
-        <v>104</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E106" s="8">
-        <v>9889656446</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H106" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="11">
-        <v>105</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="H107" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H107" s="18"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="12">
-        <v>106</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8">
-        <v>4</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H108" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="11">
-        <v>107</v>
-      </c>
-      <c r="B109" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H109" s="17"/>
+      <c r="G109" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H109" s="18"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="11">
-        <v>108</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H110" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="12">
-        <v>109</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G111" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H111" s="17"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H111" s="18"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="11">
-        <v>110</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H112" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="12">
-        <v>111</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H113" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8">
+        <v>5</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="18"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="11">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H114" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="11">
-        <v>113</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H115" s="17"/>
+        <v>118</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="18"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="12">
-        <v>114</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>248</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12">
+        <v>5</v>
+      </c>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
       <c r="H116" s="18"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="11">
-        <v>115</v>
-      </c>
-      <c r="B117" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="H117" s="17"/>
+      <c r="C117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="12">
-        <v>116</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8">
-        <v>5</v>
-      </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="18"/>
+        <v>121</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="11">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" s="18">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8">
+        <v>20</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="11">
-        <v>118</v>
-      </c>
-      <c r="B120" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H120" s="18"/>
+      <c r="C120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="12">
-        <v>119</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12">
-        <v>5</v>
-      </c>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="18"/>
+        <v>124</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="11">
-        <v>120</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8" t="s">
+      <c r="E122" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="F122" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="H122" s="8"/>
+      <c r="G122" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="12">
-        <v>121</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G123" s="10" t="s">
+      <c r="C123" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="H123" s="10"/>
+      <c r="E123" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="11">
-        <v>122</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8">
-        <v>20</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="11">
-        <v>123</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H125" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8">
+        <v>20</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="12">
-        <v>124</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F126" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="G126" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H126" s="8"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="11">
-        <v>125</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H127" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8">
+        <v>10</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="12">
-        <v>126</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H128" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="11">
-        <v>127</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H129" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8">
+        <v>5</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="11">
-        <v>128</v>
-      </c>
-      <c r="B130" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="11">
+        <v>135</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" s="18"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="12">
+        <v>136</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8">
-        <v>20</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="12">
-        <v>129</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="11">
-        <v>130</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8">
-        <v>10</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10">
+        <v>5</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="12">
-        <v>131</v>
-      </c>
-      <c r="B133" s="10" t="s">
+      <c r="A133" s="11">
+        <v>137</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H133" s="10"/>
+      <c r="C133" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="11">
-        <v>132</v>
-      </c>
-      <c r="B134" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H134" s="10"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="12">
+        <v>139</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8">
         <v>5</v>
       </c>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="11">
-        <v>133</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="17">
-        <v>3</v>
-      </c>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="11">
-        <v>135</v>
-      </c>
-      <c r="B136" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H136" s="18"/>
+      <c r="C136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="12">
-        <v>136</v>
-      </c>
-      <c r="B137" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8">
         <v>5</v>
       </c>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="17"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="11">
-        <v>137</v>
+      <c r="A138" s="12">
+        <v>142</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>19</v>
@@ -5438,58 +5393,56 @@
         <v>20</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>268</v>
-      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
       <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="11">
-        <v>138</v>
+      <c r="A139" s="12">
+        <v>143</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10" t="s">
-        <v>296</v>
+        <v>173</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="12">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="11">
-        <v>140</v>
+      <c r="A141" s="12">
+        <v>145</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>19</v>
@@ -5498,28 +5451,32 @@
         <v>20</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="12">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>292</v>
+      </c>
       <c r="E142" s="8">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
@@ -5527,418 +5484,318 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="12">
-        <v>142</v>
-      </c>
-      <c r="B143" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
+      <c r="C143" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H143" s="10"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="12">
-        <v>143</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H144" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="8">
+        <v>3</v>
+      </c>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="12">
-        <v>144</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="12">
-        <v>145</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H146" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="12">
-        <v>146</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E147" s="8">
-        <v>200</v>
-      </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H147" s="10"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="12">
-        <v>147</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H148" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="8">
+        <v>2</v>
+      </c>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="12">
-        <v>148</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="8">
-        <v>3</v>
-      </c>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="12">
-        <v>149</v>
-      </c>
-      <c r="B150" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
+      <c r="C150" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="12">
-        <v>150</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H151" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="12">
-        <v>151</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H152" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="8">
+        <v>10</v>
+      </c>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="12">
-        <v>152</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="8">
-        <v>2</v>
-      </c>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H153" s="10"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="12">
-        <v>153</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="8"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="8">
+        <v>10</v>
+      </c>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="12">
-        <v>154</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H155" s="10"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="12">
-        <v>155</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
+        <v>160</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H156" s="8"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="12">
-        <v>156</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="8">
-        <v>10</v>
-      </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H157" s="10"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="12">
-        <v>157</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="H158" s="10"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="12">
-        <v>158</v>
-      </c>
-      <c r="B159" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="8">
-        <v>10</v>
-      </c>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="12">
-        <v>159</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="H160" s="10"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="12">
-        <v>160</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H161" s="8"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="12">
-        <v>161</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="H162" s="10"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="12">
-        <v>162</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8">
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8">
         <v>4</v>
       </c>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C119 B120 C120 B121 C121 B4:B17 C7:C9 C14:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C114 B115 C115 B116 C116 B4:B17 C7:C9 C14:C17">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C58 C81 C29:C35">
@@ -5947,13 +5804,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89 B100 B101 B119 C135 C137 B1:B3 B18:B38 B39:B88 B90:B98 B103:B118 B122:B135 B136:B138 B162:B163 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95 B96 B114 C130 C132 B1:B3 B18:B38 B39:B87 B88:B93 B98:B113 B117:B130 B131:B133 B157:B158 C2:C3">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136 C18:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131 C18:C28">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139:B142 B143:B161">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134:B137 B138:B156">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5984,7 +5841,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5992,20 +5849,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6016,20 +5873,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6037,47 +5894,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6087,12 +5944,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6102,55 +5959,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6160,152 +6017,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6315,204 +6172,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6527,12 +6384,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -1256,10 +1256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1286,9 +1286,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,6 +1302,28 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1310,61 +1338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1380,22 +1353,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,13 +1409,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,10 +1422,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1451,7 +1451,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,7 +1541,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,31 +1619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,127 +1631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,11 +1682,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1702,6 +1732,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,54 +1771,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1782,13 +1782,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1800,130 +1800,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2365,8 +2365,8 @@
   <sheetPr/>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2684,7 +2684,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>39</v>
@@ -2904,7 +2904,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>39</v>
@@ -3108,7 +3108,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>12</v>
@@ -3354,7 +3354,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
@@ -3630,7 +3630,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>12</v>
@@ -4072,7 +4072,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>12</v>
@@ -4132,7 +4132,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>12</v>
@@ -4276,7 +4276,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>12</v>
@@ -4564,7 +4564,7 @@
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>12</v>
@@ -4904,7 +4904,7 @@
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
@@ -5036,7 +5036,7 @@
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>12</v>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CFEDD5-C839-45EA-8E81-6CEF365A7A97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="406">
   <si>
     <t>Step No</t>
   </si>
@@ -384,9 +390,6 @@
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>APP_AUTHORIZE_PERSON</t>
   </si>
   <si>
@@ -1249,19 +1252,16 @@
   </si>
   <si>
     <t>SikuliClick</t>
+  </si>
+  <si>
+    <t>Primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,152 +1285,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,198 +1301,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1646,16 +1316,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,10 +1333,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,258 +1344,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1937,68 +1365,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -2013,22 +1397,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2043,7 +1427,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2058,22 +1442,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2088,18 +1472,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2357,29 +1741,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3316,7 +2700,7 @@
         <v>116</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3375,7 +2759,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -3393,13 +2777,13 @@
         <v>15</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>28</v>
@@ -3417,13 +2801,13 @@
         <v>15</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>32</v>
@@ -3441,16 +2825,16 @@
         <v>20</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -3465,16 +2849,16 @@
         <v>15</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H50" s="6"/>
     </row>
@@ -3489,13 +2873,13 @@
         <v>20</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>103</v>
@@ -3513,13 +2897,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>107</v>
@@ -3537,16 +2921,16 @@
         <v>15</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E53" s="7">
         <v>10001</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -3561,16 +2945,16 @@
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" s="6">
         <v>9789123456</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H54" s="6"/>
     </row>
@@ -3585,16 +2969,16 @@
         <v>15</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3651,16 +3035,16 @@
         <v>20</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -3685,16 +3069,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -3709,16 +3093,16 @@
         <v>20</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -3733,16 +3117,16 @@
         <v>15</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -3757,16 +3141,16 @@
         <v>20</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -3781,16 +3165,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -3805,16 +3189,16 @@
         <v>15</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E65" s="7">
         <v>1235647899</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3829,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3847,14 +3231,14 @@
         <v>20</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3869,16 +3253,16 @@
         <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E68" s="6">
         <v>97890456789</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="H68" s="6"/>
     </row>
@@ -3893,14 +3277,14 @@
         <v>20</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3915,16 +3299,16 @@
         <v>20</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E70" s="6">
         <v>1230</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="H70" s="6"/>
     </row>
@@ -3939,16 +3323,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" s="7">
         <v>1550</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3963,14 +3347,14 @@
         <v>20</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H72" s="6"/>
     </row>
@@ -3985,14 +3369,14 @@
         <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -4007,14 +3391,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H74" s="6"/>
     </row>
@@ -4029,14 +3413,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -4093,7 +3477,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -4153,16 +3537,16 @@
         <v>20</v>
       </c>
       <c r="D81" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -4187,16 +3571,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -4211,14 +3595,14 @@
         <v>20</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="H84" s="6"/>
     </row>
@@ -4233,14 +3617,14 @@
         <v>20</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -4297,14 +3681,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="H88" s="6"/>
     </row>
@@ -4335,7 +3719,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4369,14 +3753,14 @@
         <v>20</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -4393,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="F93" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -4411,14 +3795,14 @@
         <v>20</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -4433,14 +3817,14 @@
         <v>20</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -4471,16 +3855,16 @@
         <v>15</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -4495,16 +3879,16 @@
         <v>15</v>
       </c>
       <c r="D98" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -4519,16 +3903,16 @@
         <v>15</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E99" s="7">
         <v>9889656446</v>
       </c>
       <c r="F99" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -4543,14 +3927,14 @@
         <v>15</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G100" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -4579,20 +3963,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -4601,20 +3985,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -4623,20 +4007,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -4645,20 +4029,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4667,20 +4051,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4689,20 +4073,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4711,20 +4095,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4733,20 +4117,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4761,14 +4145,14 @@
         <v>20</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -4861,14 +4245,14 @@
         <v>20</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -4883,14 +4267,14 @@
         <v>15</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -4921,14 +4305,14 @@
         <v>20</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="H118" s="6"/>
     </row>
@@ -4943,16 +4327,16 @@
         <v>15</v>
       </c>
       <c r="D119" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="F119" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -4967,16 +4351,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="F120" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="G120" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="H120" s="6"/>
     </row>
@@ -4985,22 +4369,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="7" t="s">
+      <c r="E121" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="F121" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -5019,10 +4403,10 @@
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -5051,7 +4435,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -5091,14 +4475,14 @@
         <v>15</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -5129,7 +4513,7 @@
         <v>15</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -5187,14 +4571,14 @@
         <v>20</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -5209,14 +4593,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="H132" s="6"/>
     </row>
@@ -5247,14 +4631,14 @@
         <v>20</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="H134" s="6"/>
     </row>
@@ -5285,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -5303,14 +4687,14 @@
         <v>20</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -5325,7 +4709,7 @@
         <v>20</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -5343,14 +4727,14 @@
         <v>20</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -5365,7 +4749,7 @@
         <v>20</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E140" s="6">
         <v>200</v>
@@ -5385,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
@@ -5423,10 +4807,10 @@
         <v>15</v>
       </c>
       <c r="D143" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
@@ -5437,22 +4821,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="6" t="s">
+      <c r="E144" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="F144" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="H144" s="6"/>
     </row>
@@ -5467,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
@@ -5505,7 +4889,7 @@
         <v>20</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -5523,7 +4907,7 @@
         <v>20</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>97</v>
@@ -5543,7 +4927,7 @@
         <v>20</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -5571,16 +4955,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -5605,20 +4989,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -5627,20 +5011,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="H154" s="6"/>
     </row>
@@ -5655,14 +5039,14 @@
         <v>20</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -5683,585 +5067,605 @@
       <c r="H156" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C112 B113 C113 B114 C114 B4:B12 B13:B15 C7:C9 C13:C15">
-      <formula1>[6]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C56 C79 C27:C33">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93 B94 B112 C128 C130 B1:B3 B16:B36 B37:B85 B86:B91 B96:B111 B115:B128 B129:B131 B155:B156 C2:C3">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C129 C16:C26">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B132:B135 B136:B154">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93 B94 B112 C128 C130 B1:B3 B16:B36 B37:B85 B86:B91 B96:B111 B115:B128 B129:B131 B155:B156 C2:C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C5 C6 C10 C11 C12 C112 B113 C113 B114 C114 B4:B12 B13:B15 C7:C9 C13:C15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44 C56 C79 C27:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive_PCase.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C76</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[Patient_Registration_Positive.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C129 C16:C26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApp_Process_Positive_PCase_Yes.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B132:B135 B136:B154</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>310</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>314</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" t="s">
         <v>317</v>
-      </c>
-      <c r="C8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>322</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>324</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>334</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>378</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>380</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>386</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6276,23 +5680,22 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CFEDD5-C839-45EA-8E81-6CEF365A7A97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405">
   <si>
     <t>Step No</t>
   </si>
@@ -387,6 +381,9 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
@@ -1047,9 +1044,6 @@
     <t>SelectCheckBox</t>
   </si>
   <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
     <t>SelectByValue</t>
   </si>
   <si>
@@ -1252,16 +1246,19 @@
   </si>
   <si>
     <t>SikuliClick</t>
-  </si>
-  <si>
-    <t>Primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,8 +1282,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1301,12 +1442,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1316,16 +1643,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,10 +1660,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,16 +1671,258 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1365,24 +1934,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1397,7 +2010,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1412,7 +2025,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1427,7 +2040,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1442,7 +2055,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1457,7 +2070,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1472,18 +2085,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
+    <tableColumn id="1" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
+    <tableColumn id="1" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1741,29 +2354,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2691,16 +3304,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>405</v>
+        <v>117</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2759,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -2777,13 +3390,13 @@
         <v>15</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>28</v>
@@ -2801,13 +3414,13 @@
         <v>15</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>32</v>
@@ -2825,16 +3438,16 @@
         <v>20</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -2849,16 +3462,16 @@
         <v>15</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H50" s="6"/>
     </row>
@@ -2873,13 +3486,13 @@
         <v>20</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>103</v>
@@ -2897,13 +3510,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>107</v>
@@ -2921,16 +3534,16 @@
         <v>15</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E53" s="7">
         <v>10001</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -2945,16 +3558,16 @@
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E54" s="6">
         <v>9789123456</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H54" s="6"/>
     </row>
@@ -2969,16 +3582,16 @@
         <v>15</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3035,16 +3648,16 @@
         <v>20</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -3069,16 +3682,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -3093,16 +3706,16 @@
         <v>20</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -3117,16 +3730,16 @@
         <v>15</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -3141,16 +3754,16 @@
         <v>20</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -3165,16 +3778,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -3189,16 +3802,16 @@
         <v>15</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E65" s="7">
         <v>1235647899</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3213,7 +3826,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3231,14 +3844,14 @@
         <v>20</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3253,16 +3866,16 @@
         <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E68" s="6">
         <v>97890456789</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H68" s="6"/>
     </row>
@@ -3277,14 +3890,14 @@
         <v>20</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3299,16 +3912,16 @@
         <v>20</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E70" s="6">
         <v>1230</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H70" s="6"/>
     </row>
@@ -3323,16 +3936,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E71" s="7">
         <v>1550</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3347,14 +3960,14 @@
         <v>20</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H72" s="6"/>
     </row>
@@ -3369,14 +3982,14 @@
         <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -3391,14 +4004,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H74" s="6"/>
     </row>
@@ -3413,14 +4026,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -3477,7 +4090,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -3537,16 +4150,16 @@
         <v>20</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -3571,16 +4184,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -3595,14 +4208,14 @@
         <v>20</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H84" s="6"/>
     </row>
@@ -3617,14 +4230,14 @@
         <v>20</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -3681,14 +4294,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H88" s="6"/>
     </row>
@@ -3719,7 +4332,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -3753,14 +4366,14 @@
         <v>20</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -3777,10 +4390,10 @@
         <v>3</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -3795,14 +4408,14 @@
         <v>20</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -3817,14 +4430,14 @@
         <v>20</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -3855,16 +4468,16 @@
         <v>15</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -3879,16 +4492,16 @@
         <v>15</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -3903,16 +4516,16 @@
         <v>15</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E99" s="7">
         <v>9889656446</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -3927,14 +4540,14 @@
         <v>15</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -3963,20 +4576,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -3985,20 +4598,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -4007,20 +4620,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -4029,20 +4642,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4051,20 +4664,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4073,20 +4686,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4095,20 +4708,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4117,20 +4730,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4145,14 +4758,14 @@
         <v>20</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -4245,14 +4858,14 @@
         <v>20</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -4267,14 +4880,14 @@
         <v>15</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -4305,14 +4918,14 @@
         <v>20</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H118" s="6"/>
     </row>
@@ -4327,16 +4940,16 @@
         <v>15</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -4351,16 +4964,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H120" s="6"/>
     </row>
@@ -4369,22 +4982,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -4403,10 +5016,10 @@
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -4435,7 +5048,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -4475,14 +5088,14 @@
         <v>15</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -4513,7 +5126,7 @@
         <v>15</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -4571,14 +5184,14 @@
         <v>20</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -4593,14 +5206,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H132" s="6"/>
     </row>
@@ -4631,14 +5244,14 @@
         <v>20</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H134" s="6"/>
     </row>
@@ -4669,7 +5282,7 @@
         <v>20</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -4687,14 +5300,14 @@
         <v>20</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -4709,7 +5322,7 @@
         <v>20</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -4727,14 +5340,14 @@
         <v>20</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -4749,7 +5362,7 @@
         <v>20</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E140" s="6">
         <v>200</v>
@@ -4769,7 +5382,7 @@
         <v>20</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
@@ -4807,10 +5420,10 @@
         <v>15</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
@@ -4821,22 +5434,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H144" s="6"/>
     </row>
@@ -4851,7 +5464,7 @@
         <v>20</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
@@ -4889,7 +5502,7 @@
         <v>20</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -4907,7 +5520,7 @@
         <v>20</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>97</v>
@@ -4927,7 +5540,7 @@
         <v>20</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -4955,16 +5568,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -4989,20 +5602,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -5011,20 +5624,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H154" s="6"/>
     </row>
@@ -5039,14 +5652,14 @@
         <v>20</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -5067,266 +5680,246 @@
       <c r="H156" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93 B94 B112 C128 C130 B1:B3 B16:B36 B37:B85 B86:B91 B96:B111 B115:B128 B129:B131 B155:B156 C2:C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C112 B113 C113 B114 C114 B4:B12 B13:B15 C7:C9 C13:C15">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C56 C79 C27:C33">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93 B94 B112 C128 C130 B1:B3 B16:B36 B37:B85 B86:B91 B96:B111 B115:B128 B129:B131 B155:B156 C2:C3">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C129 C16:C26">
+      <formula1>[5]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B132:B135 B136:B154">
+      <formula1>[6]DataList!#REF!</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4 C5 C6 C10 C11 C12 C112 B113 C113 B114 C114 B4:B12 B13:B15 C7:C9 C13:C15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44 C56 C79 C27:C33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive_PCase.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C76</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[Patient_Registration_Positive.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C129 C16:C26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApp_Process_Positive_PCase_Yes.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B132:B135 B136:B154</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
         <v>341</v>
       </c>
@@ -5373,7 +5966,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -5463,7 +6056,7 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="3:3">
@@ -5491,32 +6084,32 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
         <v>376</v>
       </c>
@@ -5526,10 +6119,10 @@
         <v>377</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
         <v>378</v>
       </c>
@@ -5539,25 +6132,25 @@
         <v>379</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
         <v>383</v>
       </c>
@@ -5567,7 +6160,7 @@
         <v>384</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="3:4">
@@ -5575,10 +6168,10 @@
         <v>385</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
         <v>386</v>
       </c>
@@ -5665,7 +6258,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5690,12 +6283,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7740"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
   <si>
     <t>Step No</t>
   </si>
@@ -498,9 +499,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -522,9 +520,6 @@
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
@@ -622,9 +617,6 @@
   </si>
   <si>
     <t>PRIMAY_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Type Primary Diagnosis</t>
@@ -1253,9 +1245,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1283,9 +1275,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,106 +1350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,7 +1368,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,73 +1440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,61 +1458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,7 +1476,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,30 +1602,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1681,6 +1673,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1712,21 +1730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1734,15 +1737,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1762,24 +1756,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1797,134 +1800,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1933,6 +1936,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2070,6 +2074,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2362,8 +2381,8 @@
   <sheetPr/>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3699,8 +3718,8 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>42</v>
+      <c r="B61" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>20</v>
@@ -3708,14 +3727,14 @@
       <c r="D61" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -3730,16 +3749,16 @@
         <v>15</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -3747,23 +3766,23 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>42</v>
+      <c r="B63" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -3778,16 +3797,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -3802,16 +3821,16 @@
         <v>15</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E65" s="7">
         <v>1235647899</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3826,7 +3845,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3844,14 +3863,14 @@
         <v>20</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3866,16 +3885,16 @@
         <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E68" s="6">
         <v>97890456789</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H68" s="6"/>
     </row>
@@ -3890,14 +3909,14 @@
         <v>20</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3912,16 +3931,16 @@
         <v>20</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E70" s="6">
         <v>1230</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H70" s="6"/>
     </row>
@@ -3936,16 +3955,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E71" s="7">
         <v>1550</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3960,14 +3979,14 @@
         <v>20</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H72" s="6"/>
     </row>
@@ -3982,14 +4001,14 @@
         <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -4004,14 +4023,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H74" s="6"/>
     </row>
@@ -4026,14 +4045,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -4090,7 +4109,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -4150,16 +4169,16 @@
         <v>20</v>
       </c>
       <c r="D81" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -4190,10 +4209,10 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -4208,14 +4227,14 @@
         <v>20</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H84" s="6"/>
     </row>
@@ -4230,14 +4249,14 @@
         <v>20</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -4294,14 +4313,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H88" s="6"/>
     </row>
@@ -4332,7 +4351,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4366,14 +4385,14 @@
         <v>20</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -4390,10 +4409,10 @@
         <v>3</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -4408,14 +4427,14 @@
         <v>20</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -4430,14 +4449,14 @@
         <v>20</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -4468,16 +4487,16 @@
         <v>15</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -4492,16 +4511,16 @@
         <v>15</v>
       </c>
       <c r="D98" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -4516,7 +4535,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E99" s="7">
         <v>9889656446</v>
@@ -4540,14 +4559,14 @@
         <v>15</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -4576,20 +4595,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -4598,20 +4617,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -4620,20 +4639,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -4642,20 +4661,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4664,20 +4683,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4686,20 +4705,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4708,20 +4727,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4730,20 +4749,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4758,14 +4777,14 @@
         <v>20</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -4858,14 +4877,14 @@
         <v>20</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -4880,14 +4899,14 @@
         <v>15</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -4918,14 +4937,14 @@
         <v>20</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H118" s="6"/>
     </row>
@@ -4940,16 +4959,16 @@
         <v>15</v>
       </c>
       <c r="D119" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -4964,16 +4983,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="H120" s="6"/>
     </row>
@@ -4982,22 +5001,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -5016,10 +5035,10 @@
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -5048,7 +5067,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -5088,14 +5107,14 @@
         <v>15</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -5126,7 +5145,7 @@
         <v>15</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -5184,14 +5203,14 @@
         <v>20</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -5206,14 +5225,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H132" s="6"/>
     </row>
@@ -5244,14 +5263,14 @@
         <v>20</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H134" s="6"/>
     </row>
@@ -5282,7 +5301,7 @@
         <v>20</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -5300,14 +5319,14 @@
         <v>20</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -5322,7 +5341,7 @@
         <v>20</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -5340,14 +5359,14 @@
         <v>20</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -5362,7 +5381,7 @@
         <v>20</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E140" s="6">
         <v>200</v>
@@ -5382,7 +5401,7 @@
         <v>20</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
@@ -5420,10 +5439,10 @@
         <v>15</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
@@ -5434,22 +5453,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F144" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="H144" s="6"/>
     </row>
@@ -5464,7 +5483,7 @@
         <v>20</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
@@ -5502,7 +5521,7 @@
         <v>20</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -5520,7 +5539,7 @@
         <v>20</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>97</v>
@@ -5540,7 +5559,7 @@
         <v>20</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -5568,16 +5587,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -5602,20 +5621,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -5624,20 +5643,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H154" s="6"/>
     </row>
@@ -5652,14 +5671,14 @@
         <v>20</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -5680,7 +5699,7 @@
       <c r="H156" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
@@ -5690,11 +5709,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C56 C79 C27:C33">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61 B63">
+      <formula1>[7]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B93 B94 B112 C128 C130 B1:B3 B16:B36 B37:B60 B64:B85 B86:B91 B96:B111 B115:B128 B129:B131 B155:B156 C2:C3">
+      <formula1/>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
       <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93 B94 B112 C128 C130 B1:B3 B16:B36 B37:B85 B86:B91 B96:B111 B115:B128 B129:B131 B155:B156 C2:C3">
-      <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C129 C16:C26">
       <formula1>[5]DataList!#REF!</formula1>
@@ -5730,7 +5752,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5738,20 +5760,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5762,20 +5784,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5783,47 +5805,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5833,12 +5855,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5848,45 +5870,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5896,7 +5918,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5906,152 +5928,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6061,204 +6083,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6273,12 +6295,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -166,7 +166,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1245,10 +1245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1275,22 +1275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,7 +1285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,16 +1301,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1335,8 +1315,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,9 +1346,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,9 +1369,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1381,9 +1382,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,9 +1404,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,13 +1414,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,13 +1440,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,25 +1506,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,13 +1578,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,115 +1620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,30 +1682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1724,18 +1700,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1758,9 +1723,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1779,16 +1746,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1800,130 +1800,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2381,8 +2381,8 @@
   <sheetPr/>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -25,14 +25,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="402">
   <si>
     <t>Step No</t>
   </si>
@@ -1243,14 +1243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1274,152 +1268,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1434,198 +1284,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1635,16 +1299,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1652,10 +1316,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,10 +1327,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,258 +1338,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1938,57 +1360,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1999,7 +1374,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -2014,7 +1389,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2029,7 +1404,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2044,22 +1419,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2074,22 +1449,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2373,29 +1748,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2516,7 +1891,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5699,55 +5074,78 @@
       <c r="H156" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C112 B113 C113 B114 C114 B4:B12 B13:B15 C7:C9 C13:C15">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C56 C79 C27:C33">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61 B63">
-      <formula1>[7]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B93 B94 B112 C128 C130 B1:B3 B16:B36 B37:B60 B64:B85 B86:B91 B96:B111 B115:B128 B129:B131 B155:B156 C2:C3">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C129 C16:C26">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B132:B135 B136:B154">
-      <formula1>[6]DataList!#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B93 B94 B112 C128 C130 B1:B3 B16:B36 B37:B60 B64:B85 B86:B91 B96:B111 B115:B128 B129:B131 B155:B156 C2:C3"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C5 C6 C10 C11 C12 C112 B113 C113 B114 C114 B4:B12 B13:B15 C7:C9 C13:C15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[3]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44 C56 C79 C27:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[4]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B61 B63</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[5]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C76</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[6]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C129 C16:C26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[7]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B132:B135 B136:B154</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5755,7 +5153,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5763,7 +5161,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>307</v>
       </c>
@@ -5771,7 +5169,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>309</v>
       </c>
@@ -5779,7 +5177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5787,7 +5185,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -5795,7 +5193,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -5803,7 +5201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -5822,7 +5220,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>319</v>
       </c>
@@ -5830,7 +5228,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>321</v>
       </c>
@@ -5838,57 +5236,57 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:4">
       <c r="C12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:4">
       <c r="C20" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
         <v>330</v>
       </c>
@@ -5901,47 +5299,47 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:4">
       <c r="C24" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:4">
       <c r="C25" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:4">
       <c r="C30" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:4">
       <c r="C31" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:4">
       <c r="C32" t="s">
         <v>338</v>
       </c>
@@ -6106,32 +5504,32 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:4">
       <c r="C65" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:4">
       <c r="C66" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:4">
       <c r="C69" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>373</v>
       </c>
@@ -6144,7 +5542,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:4">
       <c r="C72" t="s">
         <v>375</v>
       </c>
@@ -6157,22 +5555,22 @@
         <v>318</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:4">
       <c r="C74" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:4">
       <c r="C75" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:4">
       <c r="C76" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:4">
       <c r="C77" t="s">
         <v>380</v>
       </c>
@@ -6193,7 +5591,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:4">
       <c r="C80" t="s">
         <v>383</v>
       </c>
@@ -6309,9 +5707,8 @@
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -1242,10 +1242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1272,9 +1272,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,6 +1335,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,69 +1394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,47 +1409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,19 +1437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,7 +1479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,7 +1503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,13 +1521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,7 +1539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,73 +1551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,25 +1569,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,17 +1679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1699,15 +1693,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,6 +1708,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,35 +1762,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1797,130 +1797,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2378,8 +2378,8 @@
   <sheetPr/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2651,7 +2651,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>38</v>
@@ -2693,7 +2693,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>38</v>
@@ -2913,7 +2913,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>38</v>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -104,696 +104,699 @@
     <t>Entered</t>
   </si>
   <si>
+    <t>LANDING_ALIEN_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicAlpha</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>First name entered</t>
+  </si>
+  <si>
+    <t>LAST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Enter last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
     <t>ByXPath</t>
   </si>
   <si>
+    <t>DOB_FIELD</t>
+  </si>
+  <si>
+    <t>Click on DOB field</t>
+  </si>
+  <si>
+    <t>DOB_DATEPICKER</t>
+  </si>
+  <si>
+    <t>SEARCH_PATIENT_NEW</t>
+  </si>
+  <si>
+    <t>Click on search button</t>
+  </si>
+  <si>
+    <t>Wait for page to load</t>
+  </si>
+  <si>
+    <t>CREATE_APP_LINK</t>
+  </si>
+  <si>
+    <t>Click on create application</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>PATIENT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Hepatitis C***</t>
+  </si>
+  <si>
+    <t>Enter fund name</t>
+  </si>
+  <si>
+    <t>Fund name entered</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>NUM_OF_PEOPLE</t>
+  </si>
+  <si>
+    <t>Enter no of peoples</t>
+  </si>
+  <si>
+    <t>No of Peoples entered</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD_INCOME</t>
+  </si>
+  <si>
+    <t>Enter household income</t>
+  </si>
+  <si>
+    <t>House income entered</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_LABEL1_YES</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>Clicked Yes</t>
+  </si>
+  <si>
+    <t>TREATMENT_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>REG_ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Enter Zipcode</t>
+  </si>
+  <si>
+    <t>Zipcode entered</t>
+  </si>
+  <si>
+    <t>SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Submitted button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>PATIENT_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>_Mname</t>
+  </si>
+  <si>
+    <t>APP_GENDER</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Select Gender</t>
+  </si>
+  <si>
+    <t>Gender selected</t>
+  </si>
+  <si>
+    <t>APP_ETHNICITY</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Select Ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity selected</t>
+  </si>
+  <si>
+    <t>APP_VETERAN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Select Veteran</t>
+  </si>
+  <si>
+    <t>Veteran selected</t>
+  </si>
+  <si>
+    <t>APP_EMP_STATUS</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Select Employment status</t>
+  </si>
+  <si>
+    <t>Employment status selected</t>
+  </si>
+  <si>
+    <t>APP_MARITAL_STATUS</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Select Marital Status</t>
+  </si>
+  <si>
+    <t>Marital Status selected</t>
+  </si>
+  <si>
+    <t>NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>Next page navigated successfully</t>
+  </si>
+  <si>
+    <t>APP_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>Mailing</t>
+  </si>
+  <si>
+    <t>Select Address Type</t>
+  </si>
+  <si>
+    <t>Address Type seleceted</t>
+  </si>
+  <si>
+    <t>CONTACT_ADDRESS_LINE1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Enter Add1</t>
+  </si>
+  <si>
+    <t>add 1 entered</t>
+  </si>
+  <si>
+    <t>CONTACT_STATE</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Select state</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>CONTACT_CITY</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Enter CIty</t>
+  </si>
+  <si>
+    <t>City entered</t>
+  </si>
+  <si>
+    <t>CONTACT_ZIPCODE</t>
+  </si>
+  <si>
+    <t>APP_COUNTRY</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Coutry entered</t>
+  </si>
+  <si>
+    <t>CONTACT_PHONE_TYPE</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>CONTACT_PNONE_NUMBER</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>CONTACT_SEQUENCE</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_PERSON</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_FNAME</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Enter First  name</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_LNAME</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Select Relationship</t>
+  </si>
+  <si>
+    <t>Relationship selected</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_ADDRESS1</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Address entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_STATE</t>
+  </si>
+  <si>
+    <t>Select State</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_CITY</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_ZIP</t>
+  </si>
+  <si>
+    <t>Enter Zip</t>
+  </si>
+  <si>
+    <t>Zip entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_PHONE</t>
+  </si>
+  <si>
+    <t>Enter Phone number</t>
+  </si>
+  <si>
+    <t>Phone number entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_EMAIL</t>
+  </si>
+  <si>
+    <t>@mail.in</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>Email entered</t>
+  </si>
+  <si>
+    <t>APP_PRI_INSURANCE</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Enter Insurance name</t>
+  </si>
+  <si>
+    <t>Insurance entered</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Insurance type</t>
+  </si>
+  <si>
+    <t>Insurance selected</t>
+  </si>
+  <si>
+    <t>APP_PLANTYPE</t>
+  </si>
+  <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_INS_TYPE</t>
+  </si>
+  <si>
+    <t>Insurance type selected</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>APP_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>Enter Group name</t>
+  </si>
+  <si>
+    <t>Group name entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>APP_PRIM_TEL</t>
+  </si>
+  <si>
+    <t>Enter Primary Phone number</t>
+  </si>
+  <si>
+    <t>Primary phone number entered</t>
+  </si>
+  <si>
+    <t>APP_PRESCRI_DRUG</t>
+  </si>
+  <si>
+    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
+  </si>
+  <si>
+    <t>Yes clicked</t>
+  </si>
+  <si>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>PHYSICIAN_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>SSN_FIELD</t>
+  </si>
+  <si>
+    <t>Enter SSN</t>
+  </si>
+  <si>
+    <t>SSN entered</t>
+  </si>
+  <si>
     <t>SEARCH_BUTTON_LINK</t>
   </si>
   <si>
-    <t>Click Search</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicAlpha</t>
-  </si>
-  <si>
-    <t>FIRST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Enter First name</t>
-  </si>
-  <si>
-    <t>First name entered</t>
-  </si>
-  <si>
-    <t>LAST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>Enter last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>DOB_FIELD</t>
-  </si>
-  <si>
-    <t>Click on DOB field</t>
-  </si>
-  <si>
-    <t>DOB_DATEPICKER</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
-  </si>
-  <si>
-    <t>Click on search button</t>
-  </si>
-  <si>
-    <t>Wait for page to load</t>
-  </si>
-  <si>
-    <t>CREATE_APP_LINK</t>
-  </si>
-  <si>
-    <t>Click on create application</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>PATIENT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Hepatitis C***</t>
-  </si>
-  <si>
-    <t>Enter fund name</t>
-  </si>
-  <si>
-    <t>Fund name entered</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>NUM_OF_PEOPLE</t>
-  </si>
-  <si>
-    <t>Enter no of peoples</t>
-  </si>
-  <si>
-    <t>No of Peoples entered</t>
-  </si>
-  <si>
-    <t>HOUSEHOLD_INCOME</t>
-  </si>
-  <si>
-    <t>Enter household income</t>
-  </si>
-  <si>
-    <t>House income entered</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS_LABEL1_YES</t>
-  </si>
-  <si>
-    <t>Click Yes</t>
-  </si>
-  <si>
-    <t>Clicked Yes</t>
-  </si>
-  <si>
-    <t>TREATMENT_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>REG_ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Enter Zipcode</t>
-  </si>
-  <si>
-    <t>Zipcode entered</t>
-  </si>
-  <si>
-    <t>SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Submitted button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>PATIENT_MIDDLE_NAME</t>
-  </si>
-  <si>
-    <t>_Mname</t>
-  </si>
-  <si>
-    <t>APP_GENDER</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Select Gender</t>
-  </si>
-  <si>
-    <t>Gender selected</t>
-  </si>
-  <si>
-    <t>APP_ETHNICITY</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Select Ethnicity</t>
-  </si>
-  <si>
-    <t>Ethnicity selected</t>
-  </si>
-  <si>
-    <t>APP_VETERAN</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Select Veteran</t>
-  </si>
-  <si>
-    <t>Veteran selected</t>
-  </si>
-  <si>
-    <t>APP_EMP_STATUS</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Select Employment status</t>
-  </si>
-  <si>
-    <t>Employment status selected</t>
-  </si>
-  <si>
-    <t>APP_MARITAL_STATUS</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Select Marital Status</t>
-  </si>
-  <si>
-    <t>Marital Status selected</t>
-  </si>
-  <si>
-    <t>NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on next button</t>
-  </si>
-  <si>
-    <t>Next page navigated successfully</t>
-  </si>
-  <si>
-    <t>APP_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>Mailing</t>
-  </si>
-  <si>
-    <t>Select Address Type</t>
-  </si>
-  <si>
-    <t>Address Type seleceted</t>
-  </si>
-  <si>
-    <t>CONTACT_ADDRESS_LINE1</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Enter Add1</t>
-  </si>
-  <si>
-    <t>add 1 entered</t>
-  </si>
-  <si>
-    <t>CONTACT_STATE</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Select state</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>CONTACT_CITY</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Enter CIty</t>
-  </si>
-  <si>
-    <t>City entered</t>
-  </si>
-  <si>
-    <t>CONTACT_ZIPCODE</t>
-  </si>
-  <si>
-    <t>APP_COUNTRY</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Enter Country</t>
-  </si>
-  <si>
-    <t>Coutry entered</t>
-  </si>
-  <si>
-    <t>CONTACT_PHONE_TYPE</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>CONTACT_PNONE_NUMBER</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>CONTACT_SEQUENCE</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_PERSON</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_FNAME</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Enter First  name</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_LNAME</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Select Relationship</t>
-  </si>
-  <si>
-    <t>Relationship selected</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_ADDRESS1</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Address </t>
-  </si>
-  <si>
-    <t>Address entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_STATE</t>
-  </si>
-  <si>
-    <t>Select State</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_CITY</t>
-  </si>
-  <si>
-    <t>Enter City</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_ZIP</t>
-  </si>
-  <si>
-    <t>Enter Zip</t>
-  </si>
-  <si>
-    <t>Zip entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_PHONE</t>
-  </si>
-  <si>
-    <t>Enter Phone number</t>
-  </si>
-  <si>
-    <t>Phone number entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_EMAIL</t>
-  </si>
-  <si>
-    <t>@mail.in</t>
-  </si>
-  <si>
-    <t>Enter email</t>
-  </si>
-  <si>
-    <t>Email entered</t>
-  </si>
-  <si>
-    <t>APP_PRI_INSURANCE</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Enter Insurance name</t>
-  </si>
-  <si>
-    <t>Insurance entered</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>Select Insurance type</t>
-  </si>
-  <si>
-    <t>Insurance selected</t>
-  </si>
-  <si>
-    <t>APP_PLANTYPE</t>
-  </si>
-  <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Insurance type selected</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>APP_GROUP_NAME</t>
-  </si>
-  <si>
-    <t>Enter Group name</t>
-  </si>
-  <si>
-    <t>Group name entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>APP_PRIM_TEL</t>
-  </si>
-  <si>
-    <t>Enter Primary Phone number</t>
-  </si>
-  <si>
-    <t>Primary phone number entered</t>
-  </si>
-  <si>
-    <t>APP_PRESCRI_DRUG</t>
-  </si>
-  <si>
-    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
-  </si>
-  <si>
-    <t>Yes clicked</t>
-  </si>
-  <si>
-    <t>APP_MEDI_SERVICE</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for medical services:</t>
-  </si>
-  <si>
-    <t>APP_PHARMACY_BENEFITS</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_SUPP_NO</t>
-  </si>
-  <si>
-    <t>Does the patient have a Medicare Supplement?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>APP_COBRA _EFFECT_NO</t>
-  </si>
-  <si>
-    <t>Is insurance coverage continuation under COBRA in effect?</t>
-  </si>
-  <si>
-    <t>PHYSICIAN_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PRIMAY_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Type Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis entered</t>
-  </si>
-  <si>
-    <t>Select Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis selected</t>
-  </si>
-  <si>
-    <t>DATE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Select Diagnosis date</t>
-  </si>
-  <si>
-    <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>SELF_LASTPAGE</t>
-  </si>
-  <si>
-    <t>Check Self</t>
-  </si>
-  <si>
-    <t>Self checked</t>
-  </si>
-  <si>
-    <t>AGREE_CHECKBOX_STEP7</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>SSN_FIELD</t>
-  </si>
-  <si>
-    <t>Enter SSN</t>
-  </si>
-  <si>
-    <t>SSN entered</t>
-  </si>
-  <si>
     <t>HOME_ACTIONS</t>
   </si>
   <si>
@@ -882,9 +885,6 @@
   </si>
   <si>
     <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>LANDING_ALIEN_SEARCH</t>
   </si>
   <si>
     <t>PROVIDER_EXPENDITURE</t>
@@ -2426,8 +2426,8 @@
   <sheetPr/>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:G125"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2574,18 +2574,18 @@
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -2610,22 +2610,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -2634,22 +2634,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -2661,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>36</v>
@@ -2683,7 +2683,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -2717,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>39</v>
@@ -2727,7 +2727,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -2759,7 +2759,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>42</v>
@@ -2865,7 +2865,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>53</v>
@@ -2889,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>56</v>
@@ -2911,7 +2911,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>59</v>
@@ -2933,7 +2933,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>60</v>
@@ -2979,7 +2979,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>64</v>
@@ -3041,7 +3041,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>70</v>
@@ -3065,7 +3065,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>74</v>
@@ -3089,7 +3089,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>78</v>
@@ -3113,7 +3113,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>82</v>
@@ -3137,7 +3137,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>86</v>
@@ -3203,7 +3203,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>93</v>
@@ -3251,7 +3251,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>101</v>
@@ -3347,7 +3347,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>114</v>
@@ -3387,7 +3387,7 @@
         <v>117</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>118</v>
@@ -3449,7 +3449,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>119</v>
@@ -3479,7 +3479,7 @@
         <v>122</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -3503,7 +3503,7 @@
         <v>125</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49" s="6"/>
     </row>
@@ -3515,7 +3515,7 @@
         <v>44</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>126</v>
@@ -3563,7 +3563,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>134</v>
@@ -3725,7 +3725,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>148</v>
@@ -3783,7 +3783,7 @@
         <v>117</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>155</v>
@@ -3831,7 +3831,7 @@
         <v>117</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>162</v>
@@ -3903,7 +3903,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>170</v>
@@ -3921,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>171</v>
@@ -3967,7 +3967,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>177</v>
@@ -3989,7 +3989,7 @@
         <v>49</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>180</v>
@@ -4013,7 +4013,7 @@
         <v>49</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>182</v>
@@ -4037,7 +4037,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>184</v>
@@ -4059,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>186</v>
@@ -4081,7 +4081,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>189</v>
@@ -4103,7 +4103,7 @@
         <v>14</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>191</v>
@@ -4167,7 +4167,7 @@
         <v>14</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>193</v>
@@ -4227,7 +4227,7 @@
         <v>49</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>194</v>
@@ -4285,7 +4285,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>199</v>
@@ -4307,7 +4307,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
@@ -4371,7 +4371,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>202</v>
@@ -4409,7 +4409,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>205</v>
@@ -4443,7 +4443,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>206</v>
@@ -4485,7 +4485,7 @@
         <v>14</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>211</v>
@@ -4507,7 +4507,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>214</v>
@@ -4659,7 +4659,7 @@
         <v>229</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>230</v>
@@ -4681,7 +4681,7 @@
         <v>229</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>233</v>
@@ -4703,7 +4703,7 @@
         <v>229</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>235</v>
@@ -4725,7 +4725,7 @@
         <v>229</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>237</v>
@@ -4747,7 +4747,7 @@
         <v>229</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>239</v>
@@ -4769,7 +4769,7 @@
         <v>229</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>241</v>
@@ -4791,7 +4791,7 @@
         <v>229</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>243</v>
@@ -4813,7 +4813,7 @@
         <v>229</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>245</v>
@@ -4835,7 +4835,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>247</v>
@@ -4897,17 +4897,17 @@
         <v>14</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -4935,17 +4935,17 @@
         <v>14</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -4960,14 +4960,14 @@
         <v>15</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H117" s="6"/>
     </row>
@@ -4995,17 +4995,17 @@
         <v>14</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H119" s="6"/>
     </row>
@@ -5020,16 +5020,16 @@
         <v>15</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -5041,19 +5041,19 @@
         <v>44</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H121" s="6"/>
     </row>
@@ -5062,22 +5062,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -5089,17 +5089,17 @@
         <v>14</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -5131,17 +5131,17 @@
         <v>14</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H125" s="6"/>
     </row>
@@ -5176,14 +5176,14 @@
         <v>15</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H127" s="6"/>
     </row>
@@ -5272,14 +5272,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="H132" s="9"/>
     </row>
@@ -5307,17 +5307,17 @@
         <v>14</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -5367,7 +5367,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>287</v>
@@ -5405,7 +5405,7 @@
         <v>14</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>290</v>
@@ -5423,7 +5423,7 @@
         <v>14</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>291</v>
@@ -5445,7 +5445,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>292</v>
@@ -5463,7 +5463,7 @@
         <v>14</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>293</v>
@@ -5485,7 +5485,7 @@
         <v>49</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>294</v>
@@ -5505,7 +5505,7 @@
         <v>14</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>295</v>
@@ -5546,10 +5546,10 @@
         <v>15</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
@@ -5560,22 +5560,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H147" s="6"/>
     </row>
@@ -5587,7 +5587,7 @@
         <v>14</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>295</v>
@@ -5625,7 +5625,7 @@
         <v>14</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>296</v>
@@ -5643,7 +5643,7 @@
         <v>67</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>297</v>
@@ -5663,7 +5663,7 @@
         <v>14</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>296</v>
@@ -5697,17 +5697,17 @@
         <v>14</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -5735,7 +5735,7 @@
         <v>229</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>298</v>
@@ -5757,7 +5757,7 @@
         <v>301</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>302</v>
@@ -5779,7 +5779,7 @@
         <v>14</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>305</v>
@@ -5814,7 +5814,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C12 C13 C14 C113 B114 C114 B115 C115 B7:B14 B15:B17 C9:C11 C15:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 B125 C125 B154 C154 B4:B6 B129:B132 C4:C6 C129:C132">
+      <formula1>[8]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C12 C13 C14 C113 B114 C114 B115 C115 B7:B14 B15:B17 C9:C11 C15:C17">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34 C45 C57 C80 C29:C33">
@@ -5828,9 +5831,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
       <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125 C125 B154 C154 B4:B6 B129:B132 C4:C6 C129:C132">
-      <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135:B138 B139:B153 B155:B157">
       <formula1>[7]DataList!#REF!</formula1>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>313</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="3:3">

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403">
   <si>
     <t>Step No</t>
   </si>
@@ -783,18 +783,6 @@
   </si>
   <si>
     <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>SSN_FIELD</t>
-  </si>
-  <si>
-    <t>Enter SSN</t>
-  </si>
-  <si>
-    <t>SSN entered</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
   </si>
   <si>
     <t>HOME_ACTIONS</t>
@@ -2424,10 +2412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4866,125 +4854,121 @@
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C113" s="6" t="s">
+      <c r="B113" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H113" s="6">
-        <v>3</v>
-      </c>
+      <c r="D113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" s="7"/>
+      <c r="B114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9">
+        <v>1</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6">
+      <c r="B115" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8">
         <v>5</v>
       </c>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H116" s="7"/>
+      <c r="C116" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6">
+        <v>5</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="7">
-        <v>117</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7">
-        <v>15</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
+      <c r="C118" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8">
@@ -4995,42 +4979,34 @@
         <v>14</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7">
         <v>15</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>266</v>
-      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8">
@@ -5038,22 +5014,20 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>268</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H121" s="6"/>
     </row>
@@ -5062,44 +5036,46 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E123" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="F123" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -5108,40 +5084,44 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7">
-        <v>10</v>
+        <v>267</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>280</v>
+      <c r="C125" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="H125" s="6"/>
     </row>
@@ -5169,26 +5149,26 @@
       <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>283</v>
+      <c r="C127" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -5197,150 +5177,148 @@
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7">
-        <v>5</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="6">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="8"/>
+      <c r="D129" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="6">
         <v>129</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9">
-        <v>1</v>
-      </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7">
+        <v>5</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8">
-        <v>5</v>
-      </c>
+      <c r="F131" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="6">
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9">
+        <v>1</v>
+      </c>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
       <c r="H132" s="9"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6">
+      <c r="B133" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8">
         <v>5</v>
       </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>133</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H134" s="7"/>
+      <c r="C134" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>286</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6">
+        <v>5</v>
+      </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8">
@@ -5348,36 +5326,42 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7">
-        <v>5</v>
-      </c>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H137" s="6"/>
     </row>
@@ -5408,33 +5392,31 @@
         <v>35</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="F139" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>173</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7">
+        <v>5</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
       <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8">
@@ -5448,7 +5430,7 @@
         <v>35</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -5466,7 +5448,7 @@
         <v>35</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
@@ -5478,21 +5460,19 @@
       <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E143" s="6">
-        <v>200</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -5508,14 +5488,14 @@
         <v>35</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5524,35 +5504,41 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="E145" s="6">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8">
@@ -5560,23 +5546,15 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>275</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6">
+        <v>3</v>
+      </c>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8">
@@ -5584,37 +5562,43 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
       <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6">
-        <v>2</v>
-      </c>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8">
@@ -5628,11 +5612,15 @@
         <v>35</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
+      <c r="F150" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="H150" s="7"/>
     </row>
     <row r="151" spans="1:8">
@@ -5640,23 +5628,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>98</v>
+        <v>11</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6">
+        <v>2</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
@@ -5666,7 +5650,7 @@
         <v>35</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -5678,12 +5662,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -5693,26 +5681,22 @@
       <c r="A154" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>280</v>
-      </c>
+      <c r="C154" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -5731,21 +5715,21 @@
       <c r="A156" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>300</v>
+      <c r="B156" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -5754,42 +5738,36 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>304</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6">
+        <v>10</v>
+      </c>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -5798,26 +5776,70 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6">
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6">
         <v>4</v>
       </c>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 B125 C125 B154 C154 B4:B6 B129:B132 C4:C6 C129:C132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 B127 C127 B156 C156 B4:B6 B113:B116 B131:B134 C4:C6 C113:C116 C131:C134">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C12 C13 C14 C113 B114 C114 B115 C115 B7:B14 B15:B17 C9:C11 C15:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C12 C13 C14 B117 C117 B7:B14 B15:B17 C9:C11 C15:C17">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34 C45 C57 C80 C29:C33">
@@ -5826,13 +5848,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B64">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B94 B95 B113 C133 B1:B3 B18:B33 B34:B37 B38:B61 B65:B86 B87:B92 B97:B112 B116:B124 B126:B128 B133:B134 B158:B159 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B94 B95 C135 B1:B3 B18:B33 B34:B37 B38:B61 B65:B86 B87:B92 B97:B112 B118:B126 B128:B130 B135:B136 B160:B161 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135:B138 B139:B153 B155:B157">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137:B140 B141:B155 B157:B159">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C28">
@@ -5866,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5874,20 +5896,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5898,20 +5920,20 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -5919,47 +5941,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5969,12 +5991,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5984,17 +6006,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -6004,25 +6026,25 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -6032,7 +6054,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6042,152 +6064,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6197,204 +6219,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6404,17 +6426,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
